--- a/reports.xlsx
+++ b/reports.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ab6fe05ab5f6081a/Pulpit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zieba\PycharmProjects\pythonProject1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2BB1C4B4DD8A557369B3B2135B30C8325AF7FD77" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{110ABA11-E4E8-41B4-B78B-49DED0117544}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E581964-8981-4373-BF2E-D408091C7274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -453,14 +453,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:C12"/>
+  <dimension ref="A2:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>

--- a/reports.xlsx
+++ b/reports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zieba\PycharmProjects\pythonProject1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E581964-8981-4373-BF2E-D408091C7274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{69C1E08C-E2D6-486F-89E8-98141797F408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>GameType 2vi2
  Winning team: Team 2
@@ -110,6 +110,79 @@
  T2 slot 2: &lt;@436574185716973579&gt; Arabia Saladin-Sultan
  T2 slot 3: &lt;@241995821090996224&gt; America Teddy-Rough-Rider
  T1 slot 4: &lt;@282155509497200640&gt; Korea Seondeok</t>
+  </si>
+  <si>
+    <t>2023-03-02 00:25:53</t>
+  </si>
+  <si>
+    <t>GameType 2vi2
+ Winning team: Team 2
+ Host: &lt;@165476870819807232&gt;
+ Bans: Arabia_Sultan, Korea_Seondeok
+ T1 slot 1: &lt;@165476870819807232&gt; Scotland_Robert-The-Bruce
+ T2 slot 2: &lt;@436574185716973579&gt; Egypt_Ramses
+ T2 slot 3: &lt;@399531664667312168&gt; Zulu_Shaka
+ T1 slot 4: &lt;@426398951483244545&gt; America_Teddy-Rough-Rider</t>
+  </si>
+  <si>
+    <t>2023-03-02 01:40:23</t>
+  </si>
+  <si>
+    <t>2023-03-02 13:29:38</t>
+  </si>
+  <si>
+    <t>GameType 2vi2
+ Winning team: Team 1
+ Host: &lt;@247731928906727424&gt;
+ Bans: Scotland_Robert-The-Bruce, Gran-Colombia_Simon-Bolivar
+ T1 slot 1: &lt;@247731928906727424&gt; Mapuche_Lautaro
+ T2 slot 2: &lt;@345518497348059138&gt; Persia_Cyrus
+ T2 slot 3: &lt;@263768776518926347&gt; America_Teddy-Rough-Rider
+ T1 slot 4: &lt;@313060389862768642&gt; Zulu_Shaka</t>
+  </si>
+  <si>
+    <t>2023-03-02 17:22:01</t>
+  </si>
+  <si>
+    <t>GameType 2vi2
+ Winning team: Team 1
+ Host: &lt;@247731928906727424&gt;
+ Bans: Zulu_Shaka, Mapuche_Lautaro
+ T1 slot 1: &lt;@165476870819807232&gt; Arabia_Sultan
+ T2 slot 2: &lt;@247731928906727424&gt; Sumeria_Gilgamesh
+ T2 slot 3: &lt;@535033965397016577&gt; Scotland_Robert-The-Bruce
+ T1 slot 4: &lt;@693899041376829563&gt; Gran-Colombia_Simon-Bolivar</t>
+  </si>
+  <si>
+    <t>2023-03-02 17:43:53</t>
+  </si>
+  <si>
+    <t>GameType 2vi2
+ Winning team: Team 1
+ Host: &lt;@165476870819807232&gt;
+ Bans: Gran-Colombia_Simon-Bolivar, Zulu_Shaka
+ T1 slot 1: &lt;@247731928906727424&gt; Mapuche_Lautaro
+ T2 slot 2: &lt;@165476870819807232&gt; Arabia_Sultan
+ T2 slot 3: &lt;@693899041376829563&gt; America_Teddy-Rough-Rider
+ T1 slot 4: &lt;@535033965397016577&gt; Mongolia_Genghis-Khan</t>
+  </si>
+  <si>
+    <t>game_number</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>report</t>
+  </si>
+  <si>
+    <t>GameType 2vi2 Winning team: Team 2 Host: @Ben but better Bans: Arabia_Sultan, Korea_Seondeok T1 slot 1: @Ben but better Scotland_Robert-The-Bruce T2 slot 2: @[SunTzu] Sprigganté Egypt_Ramses T2 slot 3: @Poolp Zulu_Shaka T1 slot 4: @JJJ America_Teddy-Rough-Rider</t>
+  </si>
+  <si>
+    <t>2023-03-02 01:40:24</t>
+  </si>
+  <si>
+    <t>GameType 2vi2 Winning team: Team 2 Host: @Pouncy Bans: Scotland_Robert-The-Bruce, Zulu_Shaka T1 slot 1: @Pouncy Greece_Gorgo T2 slot 2: @Hora de Worka Mongolia_Kublai-Khan T2 slot 3: @HD Aztec_Montezuma T1 slot 4: @[CivAus] snoodle Mapuche_Lautaro</t>
   </si>
 </sst>
 </file>
@@ -119,10 +192,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -453,28 +532,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:C12"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" s="1">
+        <v>44986</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>44985</v>
+        <v>44986</v>
       </c>
       <c r="C3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -482,10 +583,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>44985</v>
+        <v>44986</v>
       </c>
       <c r="C4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -493,10 +594,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>44985</v>
+        <v>44986</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -504,10 +605,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>44985</v>
+        <v>44986</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -515,10 +616,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>44985</v>
+        <v>44986</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -526,10 +627,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>44985</v>
+        <v>44986</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -537,10 +638,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>44985</v>
+        <v>44986</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -548,10 +649,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>44985</v>
+        <v>44986</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -559,24 +660,81 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>44985</v>
+        <v>44986</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
-        <v>44985</v>
+      <c r="B12" t="s">
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>